--- a/AIS/SPARC4_Spectral_Response/retarder.xlsx
+++ b/AIS/SPARC4_Spectral_Response/retarder.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">retarder</t>
+    <t xml:space="preserve">Retarder</t>
   </si>
 </sst>
 </file>
@@ -110,16 +110,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -140,15 +144,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -211,6 +218,58 @@
       <c r="D5" s="2" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
